--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/bioindicator/bioindicator.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/bioindicator/bioindicator.xlsx
@@ -422,13 +422,13 @@
         <v>topConceptOf</v>
       </c>
       <c r="G1" t="str">
-        <v>isReferencedBy</v>
+        <v>altLabel</v>
       </c>
       <c r="H1" t="str">
-        <v>altLabel</v>
+        <v>theme</v>
       </c>
       <c r="I1" t="str">
-        <v>theme</v>
+        <v>subjectOf</v>
       </c>
       <c r="J1" t="str">
         <v>notation</v>
@@ -935,7 +935,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/aliivibrio_fischeri</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -950,13 +950,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G13" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_004</v>
+        <v>Luminescente bacterie</v>
       </c>
       <c r="H13" t="str">
-        <v>Luminescente bacterie</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I13" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/004</v>
       </c>
       <c r="J13" t="str">
         <v>null</v>
@@ -1023,7 +1023,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/anostraca</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -1038,13 +1038,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G15" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_001</v>
+        <v>Pekelkreeftje</v>
       </c>
       <c r="H15" t="str">
-        <v>Pekelkreeftje</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I15" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/001</v>
       </c>
       <c r="J15" t="str">
         <v>null</v>
@@ -1771,7 +1771,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/clostridium_perfringens</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -1786,13 +1786,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G32" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_007</v>
+        <v>Clostridium perfringens</v>
       </c>
       <c r="H32" t="str">
-        <v>Clostridium perfringens</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I32" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/007</v>
       </c>
       <c r="J32" t="str">
         <v>null</v>
@@ -1859,7 +1859,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coagulase_positieve_staphylococci</v>
       </c>
       <c r="B34" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -1874,13 +1874,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G34" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_008</v>
+        <v>stafylokokken</v>
       </c>
       <c r="H34" t="str">
-        <v>stafylokokken</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I34" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/008</v>
       </c>
       <c r="J34" t="str">
         <v>null</v>
@@ -1903,7 +1903,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/coliformen</v>
       </c>
       <c r="B35" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -1918,13 +1918,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G35" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_002</v>
+        <v>coliformen</v>
       </c>
       <c r="H35" t="str">
-        <v>coliformen</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I35" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/002</v>
       </c>
       <c r="J35" t="str">
         <v>null</v>
@@ -2079,7 +2079,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/danio_rerio</v>
       </c>
       <c r="B39" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2094,13 +2094,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G39" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_002</v>
+        <v>Zebravisembryo</v>
       </c>
       <c r="H39" t="str">
-        <v>Zebravisembryo</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I39" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/002</v>
       </c>
       <c r="J39" t="str">
         <v>null</v>
@@ -2123,7 +2123,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/daphnia_magna</v>
       </c>
       <c r="B40" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2138,13 +2138,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G40" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_001</v>
+        <v>Watervlo</v>
       </c>
       <c r="H40" t="str">
-        <v>Watervlo</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I40" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/001</v>
       </c>
       <c r="J40" t="str">
         <v>null</v>
@@ -2211,7 +2211,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/ekc-fytobenthos</v>
       </c>
       <c r="B42" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2226,13 +2226,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G42" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/VLAREM_II</v>
+        <v>EKC-fytobenthos</v>
       </c>
       <c r="H42" t="str">
-        <v>EKC-fytobenthos</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I42" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>VLAREM II</v>
       </c>
       <c r="J42" t="str">
         <v>null</v>
@@ -2255,7 +2255,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/ekc-fytoplankton</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2270,13 +2270,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G43" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/VLAREM_II</v>
+        <v>EKC-fytoplankton</v>
       </c>
       <c r="H43" t="str">
-        <v>EKC-fytoplankton</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I43" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>VLAREM II</v>
       </c>
       <c r="J43" t="str">
         <v>null</v>
@@ -2299,7 +2299,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/ekc-macro-invertebraten</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2314,13 +2314,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G44" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/VLAREM_II</v>
+        <v>EKC-macro-invertebraten</v>
       </c>
       <c r="H44" t="str">
-        <v>EKC-macro-invertebraten</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I44" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>VLAREM II</v>
       </c>
       <c r="J44" t="str">
         <v>null</v>
@@ -2343,7 +2343,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/ekc-macrofyten</v>
       </c>
       <c r="B45" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2358,13 +2358,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G45" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/VLAREM_II</v>
+        <v>EKC-macrofyten</v>
       </c>
       <c r="H45" t="str">
-        <v>EKC-macrofyten</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I45" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>VLAREM II</v>
       </c>
       <c r="J45" t="str">
         <v>null</v>
@@ -2387,7 +2387,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/ekc-visfauna</v>
       </c>
       <c r="B46" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -2402,13 +2402,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G46" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/VLAREM_II</v>
+        <v>EKC-visfauna</v>
       </c>
       <c r="H46" t="str">
-        <v>EKC-visfauna</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I46" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>VLAREM II</v>
       </c>
       <c r="J46" t="str">
         <v>null</v>
@@ -3487,7 +3487,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/escherichia_coli</v>
       </c>
       <c r="B71" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -3502,13 +3502,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G71" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_002</v>
+        <v>Escherichia coli (E. coli)</v>
       </c>
       <c r="H71" t="str">
-        <v>Escherichia coli (E. coli)</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I71" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/002</v>
       </c>
       <c r="J71" t="str">
         <v>EColi</v>
@@ -3751,7 +3751,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/intestinale_enterococci</v>
       </c>
       <c r="B77" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -3766,13 +3766,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G77" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_003</v>
+        <v>enterokokken</v>
       </c>
       <c r="H77" t="str">
-        <v>enterokokken</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I77" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/003</v>
       </c>
       <c r="J77" t="str">
         <v>null</v>
@@ -3795,7 +3795,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/kiemgetal_bij_22c_en_36c</v>
       </c>
       <c r="B78" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -3810,13 +3810,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G78" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_001</v>
+        <v>kiemgetal bij 22°C en 36°C</v>
       </c>
       <c r="H78" t="str">
-        <v>kiemgetal bij 22°C en 36°C</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I78" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/001</v>
       </c>
       <c r="J78" t="str">
         <v>null</v>
@@ -4147,7 +4147,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_pneumophila</v>
       </c>
       <c r="B86" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4162,13 +4162,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G86" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_005</v>
+        <v>Legionella pneumophila</v>
       </c>
       <c r="H86" t="str">
-        <v>Legionella pneumophila</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I86" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/005</v>
       </c>
       <c r="J86" t="str">
         <v>null</v>
@@ -4191,7 +4191,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/legionella_spp._</v>
       </c>
       <c r="B87" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4206,13 +4206,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G87" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_005</v>
+        <v>Legionella spp.</v>
       </c>
       <c r="H87" t="str">
-        <v>Legionella spp.</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I87" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/005</v>
       </c>
       <c r="J87" t="str">
         <v>Legio</v>
@@ -4543,7 +4543,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/oncorhyncus_mykiss</v>
       </c>
       <c r="B95" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4558,13 +4558,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G95" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_007</v>
+        <v>Forel</v>
       </c>
       <c r="H95" t="str">
-        <v>Forel</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I95" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/007</v>
       </c>
       <c r="J95" t="str">
         <v>null</v>
@@ -4675,7 +4675,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/phaeodactylum_tricornutum</v>
       </c>
       <c r="B98" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4690,13 +4690,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G98" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_003</v>
+        <v>Mariene alg</v>
       </c>
       <c r="H98" t="str">
-        <v>Mariene alg</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I98" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/003</v>
       </c>
       <c r="J98" t="str">
         <v>null</v>
@@ -4763,7 +4763,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudokirchneriella_subcapitata</v>
       </c>
       <c r="B100" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4778,13 +4778,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G100" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_B_003</v>
+        <v>Zoetwateralg</v>
       </c>
       <c r="H100" t="str">
-        <v>Zoetwateralg</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I100" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/B/003</v>
       </c>
       <c r="J100" t="str">
         <v>null</v>
@@ -4851,7 +4851,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/pseudomonas_aeruginosa</v>
       </c>
       <c r="B102" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -4866,13 +4866,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G102" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_006</v>
+        <v>Pseudomonas aeruginosa</v>
       </c>
       <c r="H102" t="str">
-        <v>Pseudomonas aeruginosa</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I102" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/006</v>
       </c>
       <c r="J102" t="str">
         <v>null</v>
@@ -5159,7 +5159,7 @@
         <v>https://data.omgeving.vlaanderen.be/id/concept/bioindicator/salmonella_spp.</v>
       </c>
       <c r="B109" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept|http://www.w3.org/2000/01/rdf-schema#Resource</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
@@ -5174,13 +5174,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G109" t="str">
-        <v>https://data.omgeving.vlaanderen.be/id/concept/observatieprocedure/WAC_V_A_004</v>
+        <v>Salmonella spp.</v>
       </c>
       <c r="H109" t="str">
-        <v>Salmonella spp.</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I109" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>WAC/V/A/004</v>
       </c>
       <c r="J109" t="str">
         <v>null</v>
@@ -5438,13 +5438,13 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/bioindicator</v>
       </c>
       <c r="G115" t="str">
-        <v>null</v>
+        <v>somatische colifagen</v>
       </c>
       <c r="H115" t="str">
-        <v>somatische colifagen</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
       </c>
       <c r="I115" t="str">
-        <v>http://www.eionet.europa.eu/gemet/concept/15179</v>
+        <v>Drinkwaterrichtlijn (EU) 2020/2184</v>
       </c>
       <c r="J115" t="str">
         <v>null</v>
